--- a/Design factory project - Calculator/Carbon footprint calculator.xlsx
+++ b/Design factory project - Calculator/Carbon footprint calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e7b23971a74d110/Tiedostot/GitHub/Design-factory-project/Design factory project - Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_4C9D4B8EEF748E564D25D0485C8B6D4C997D2D1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2833F8CB-7A4E-457A-AD62-066D7C71B5C3}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_4C9D4B8EEF748E564D25D0485C8B6D4C997D2D1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4CC286-1A55-46B3-92AC-35C0010D0938}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="434">
   <si>
     <t xml:space="preserve">         Koulujen hiilijalanjälkilaskuri - Laskentamalli 2022</t>
   </si>
@@ -1641,6 +1641,9 @@
   </si>
   <si>
     <t>Haluttu hiilijalanjälki</t>
+  </si>
+  <si>
+    <t>ei muuta</t>
   </si>
 </sst>
 </file>
@@ -5411,8 +5414,8 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5607,7 +5610,9 @@
       <c r="C7" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="D7" s="215"/>
+      <c r="D7" s="215">
+        <v>1000</v>
+      </c>
       <c r="E7" s="302" t="s">
         <v>210</v>
       </c>
@@ -5757,7 +5762,7 @@
       </c>
       <c r="E11" s="231">
         <f>D7*(F7+F8+F9+F10)</f>
-        <v>0</v>
+        <v>1339.0050000000001</v>
       </c>
       <c r="F11" s="212" t="s">
         <v>327</v>
@@ -5825,13 +5830,15 @@
       <c r="C13" s="210" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="267"/>
+      <c r="D13" s="267">
+        <v>1000</v>
+      </c>
       <c r="E13" s="302" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F13" s="303">
         <f>VLOOKUP(E13,Kertoimet!B133:C136,2,FALSE)/1000*170</f>
-        <v>0.20399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="G13" s="213"/>
       <c r="H13" s="213" t="s">
@@ -5863,11 +5870,11 @@
       <c r="C14" s="213"/>
       <c r="D14" s="213"/>
       <c r="E14" s="302" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="303">
         <f>VLOOKUP(E14,Kertoimet!B145:C148,2,FALSE)/1000*150</f>
-        <v>3.0000000000000002E-2</v>
+        <v>0.75</v>
       </c>
       <c r="G14" s="213"/>
       <c r="H14" s="213" t="s">
@@ -5937,7 +5944,7 @@
       <c r="C16" s="213"/>
       <c r="D16" s="213"/>
       <c r="E16" s="302" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="F16" s="301" t="str">
         <f>IF(E16="Ei muuta","0,00",VLOOKUP(E16,Kertoimet!B152:C153,2,FALSE)/1000*105)</f>
@@ -5973,7 +5980,7 @@
       </c>
       <c r="E17" s="231">
         <f>D13*(F13+F14+F15+F16)</f>
-        <v>0</v>
+        <v>1424.0050000000001</v>
       </c>
       <c r="F17" s="212" t="s">
         <v>327</v>
@@ -6683,7 +6690,7 @@
       <c r="I38" s="254"/>
       <c r="J38" s="255">
         <f>E11+E17+E21+E26+E32</f>
-        <v>0</v>
+        <v>2763.01</v>
       </c>
       <c r="K38" s="256" t="s">
         <v>25</v>
@@ -55398,7 +55405,7 @@
   <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -61345,7 +61352,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19">
         <f>F24+F30+F37+F41+F47</f>
-        <v>0</v>
+        <v>2763.01</v>
       </c>
       <c r="G21" s="83" t="str">
         <f>G24</f>
@@ -61467,7 +61474,7 @@
       <c r="E24" s="86"/>
       <c r="F24" s="87">
         <f>O31</f>
-        <v>0</v>
+        <v>2763.01</v>
       </c>
       <c r="G24" s="60" t="s">
         <v>4</v>
@@ -61510,7 +61517,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="88">
         <f>Ruoka!E11</f>
-        <v>0</v>
+        <v>1339.0050000000001</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -61551,7 +61558,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="88">
         <f>Ruoka!E17</f>
-        <v>0</v>
+        <v>1424.0050000000001</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -61774,7 +61781,7 @@
       <c r="N31" s="79"/>
       <c r="O31" s="80">
         <f>Ruoka!J38</f>
-        <v>0</v>
+        <v>2763.01</v>
       </c>
       <c r="P31" s="97" t="s">
         <v>4</v>
@@ -61823,7 +61830,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="70">
         <f>Ruoka!F7*Ruoka!D7</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="2"/>
@@ -61865,7 +61872,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="45">
         <f>Ruoka!F8*Ruoka!D7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="2"/>
@@ -61906,7 +61913,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="100">
         <f>(Ruoka!F9+Ruoka!F10)*Ruoka!D7</f>
-        <v>0</v>
+        <v>334.00500000000005</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="2"/>
@@ -61946,12 +61953,12 @@
       </c>
       <c r="M35" s="98" t="str">
         <f>Ruoka!E13</f>
-        <v>Soijarouhe</v>
+        <v>Tofu</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="45">
         <f>Ruoka!F13*Ruoka!D13</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="2"/>
@@ -61988,12 +61995,12 @@
       <c r="L36" s="6"/>
       <c r="M36" s="98" t="str">
         <f>Ruoka!E14</f>
-        <v>Peruna</v>
+        <v>Riisi</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="45">
         <f>Ruoka!F14*Ruoka!D13</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="2"/>
@@ -62036,7 +62043,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="100">
         <f>(Ruoka!F15+Ruoka!F16)*Ruoka!D13</f>
-        <v>0</v>
+        <v>334.00500000000005</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="2"/>
@@ -63713,7 +63720,7 @@
       <c r="E83" s="127"/>
       <c r="F83" s="128">
         <f>F84+F88+F95+F92</f>
-        <v>0</v>
+        <v>2763.01</v>
       </c>
       <c r="G83" s="129" t="s">
         <v>25</v>
@@ -63766,7 +63773,7 @@
       <c r="E84" s="139"/>
       <c r="F84" s="140">
         <f>Ruoka!E11</f>
-        <v>0</v>
+        <v>1339.0050000000001</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="74"/>
@@ -63813,7 +63820,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="96">
         <f>Ruoka!F7*Ruoka!D7</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G85" s="74"/>
       <c r="H85" s="74"/>
@@ -63860,7 +63867,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="88">
         <f>Ruoka!F8*Ruoka!D7</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G86" s="74"/>
       <c r="H86" s="74"/>
@@ -63906,7 +63913,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="89">
         <f>(Ruoka!F9+Ruoka!F10)*Ruoka!D7</f>
-        <v>0</v>
+        <v>334.00500000000005</v>
       </c>
       <c r="G87" s="74"/>
       <c r="H87" s="74"/>
@@ -63953,7 +63960,7 @@
       <c r="E88" s="43"/>
       <c r="F88" s="140">
         <f>Ruoka!E17</f>
-        <v>0</v>
+        <v>1424.0050000000001</v>
       </c>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
@@ -63994,13 +64001,13 @@
       <c r="B89" s="6"/>
       <c r="C89" s="98" t="str">
         <f>Ruoka!E13</f>
-        <v>Soijarouhe</v>
+        <v>Tofu</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="96">
         <f>Ruoka!F13*Ruoka!D13</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
@@ -64041,13 +64048,13 @@
       <c r="B90" s="6"/>
       <c r="C90" s="98" t="str">
         <f>Ruoka!E14</f>
-        <v>Peruna</v>
+        <v>Riisi</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="88">
         <f>Ruoka!F14*Ruoka!D13</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
@@ -64093,7 +64100,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="89">
         <f>(Ruoka!F15+Ruoka!F16)*Ruoka!D13</f>
-        <v>0</v>
+        <v>334.00500000000005</v>
       </c>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
